--- a/data/long_dif/P18_5-Estudios-long_dif.xlsx
+++ b/data/long_dif/P18_5-Estudios-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,33%</t>
+          <t>29,3%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>41,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>29,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>38,36%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21,99%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>34,98%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>29,27%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>32,91%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,36; 28,8</t>
+          <t>13,17; 32,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,85; 33,09</t>
+          <t>16,78; 36,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,4; 36,67</t>
+          <t>22,68; 36,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,87; 30,77</t>
+          <t>15,56; 36,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,07; 48,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,07; 34,0</t>
+          <t>15,06; 30,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,46; 26,66</t>
+          <t>33,12; 50,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,26; 39,88</t>
+          <t>23,58; 34,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,26; 33,3</t>
+          <t>29,79; 47,7</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16,24; 28,87</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>28,51; 41,71</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>25,08; 33,65</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>25,47; 39,78</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
+          <t>37,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>46,27%</t>
+          <t>40,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>50,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,82%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,12%</t>
+          <t>32,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>41,1%</t>
+          <t>40,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>38,1%</t>
+          <t>35,39%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>33,67%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>36,03%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>36,83%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>42,11%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,08; 57,35</t>
+          <t>26,44; 54,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,58; 59,06</t>
+          <t>27,96; 50,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,65; 39,63</t>
+          <t>25,44; 39,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,54; 39,07</t>
+          <t>38,02; 67,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,46; 46,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,87; 50,69</t>
+          <t>21,81; 38,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,7; 44,65</t>
+          <t>24,54; 41,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,93; 48,65</t>
+          <t>34,31; 46,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,57; 43,55</t>
+          <t>27,49; 43,62</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>26,66; 44,07</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>29,67; 42,83</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>31,97; 41,71</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>35,29; 53,96</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>35,85%</t>
+          <t>40,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>32,86%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>37,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>45,16%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>47,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>41,0%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,31%</t>
+          <t>30,61%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>26,25%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>44,34%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>28,99%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>33,9%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>24,98%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,6; 45,9</t>
+          <t>26,81; 50,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,67; 43,99</t>
+          <t>22,57; 54,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,74; 50,73</t>
+          <t>29,51; 49,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,91; 53,12</t>
+          <t>13,99; 33,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,82; 30,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,9; 34,86</t>
+          <t>38,21; 57,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,85; 47,03</t>
+          <t>18,97; 35,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,62; 32,38</t>
+          <t>25,32; 37,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,18; 39,69</t>
+          <t>18,59; 34,54</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>36,52; 51,91</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>22,62; 39,48</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>28,84; 40,53</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>18,41; 31,12</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>38,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,76; 19,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,14; 41,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,15; 37,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,29; 20,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,77; 44,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,83; 35,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,22; 19,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,56; 42,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,49; 35,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>33,93%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>34,07%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>41,54%</t>
+          <t>32,85%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>43,66%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>33,56%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>38,19%</t>
+          <t>30,21%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>42,57%</t>
+          <t>30,15%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15,4%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>36,82%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>31,56%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>27,05%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,96; 39,74</t>
+          <t>12,99; 22,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,15; 47,59</t>
+          <t>27,81; 42,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,67; 46,84</t>
+          <t>27,64; 38,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,82; 37,59</t>
+          <t>19,28; 30,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,4; 39,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,25; 48,11</t>
+          <t>10,03; 17,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,92; 37,21</t>
+          <t>34,15; 44,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,51; 41,8</t>
+          <t>25,75; 34,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>39,39; 46,06</t>
+          <t>25,37; 35,16</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>12,72; 18,81</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>32,92; 41,12</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>28,19; 35,08</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>23,38; 30,6</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>50,03%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>43,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>41,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>49,96%</t>
+          <t>46,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,87%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>49,99%</t>
+          <t>34,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>43,33%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>39,61%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>34,74%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>38,97%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>42,39%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>43,0%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>44,27; 55,58</t>
+          <t>31,03; 46,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,15; 26,99</t>
+          <t>36,59; 50,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,21; 30,36</t>
+          <t>36,51; 46,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>45,68; 55,24</t>
+          <t>39,0; 53,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,22; 30,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,1; 29,67</t>
+          <t>26,84; 38,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>46,15; 53,84</t>
+          <t>29,23; 39,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,87; 27,4</t>
+          <t>38,66; 47,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,67; 28,49</t>
+          <t>34,55; 45,46</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>30,06; 40,09</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>34,82; 43,33</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>38,75; 45,78</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>38,38; 47,25</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>45,01%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>41,8%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>40,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>54,37%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>41,27%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>30,24%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>49,86%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>24,21%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>26,05%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>29,95%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,69; 17,13</t>
+          <t>37,41; 51,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>36,08; 48,87</t>
+          <t>17,66; 27,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,65; 31,64</t>
+          <t>20,99; 30,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,52; 15,43</t>
+          <t>23,42; 39,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,81; 45,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,1; 31,39</t>
+          <t>47,97; 60,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,11; 15,12</t>
+          <t>21,68; 31,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>37,12; 45,55</t>
+          <t>22,92; 30,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,87; 30,55</t>
+          <t>25,28; 35,22</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>44,93; 54,8</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>20,76; 28,05</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>23,41; 29,38</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>26,0; 34,86</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>37,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>38,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>47,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>33,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>39,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>43,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>39,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>45,51%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>31,43; 43,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>32,15; 44,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>41,99; 53,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>28,43; 38,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,96; 45,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>38,71; 48,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,28; 39,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>35,27; 43,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>41,85; 49,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>49,7%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>42,85%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>55,1%</t>
+          <t>31,38%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>52,44%</t>
+          <t>41,87%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>27,04%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>28,39%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>11,64%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>42,34%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>26,72%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>29,84%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>43,78; 55,76</t>
+          <t>8,44; 18,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15,13; 24,62</t>
+          <t>36,41; 50,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>21,1; 31,68</t>
+          <t>21,91; 31,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>49,53; 60,46</t>
+          <t>25,18; 40,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,41; 24,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>25,28; 33,65</t>
+          <t>7,2; 15,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>48,27; 56,73</t>
+          <t>36,21; 47,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,14; 23,26</t>
+          <t>23,17; 31,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>24,5; 31,3</t>
+          <t>23,5; 33,45</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>8,74; 14,74</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>38,14; 46,56</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>23,7; 29,72</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>26,01; 34,45</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>32,12%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>36,13%</t>
+          <t>37,64%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>47,62%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>43,45%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>40,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>30,73%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>38,35%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>38,15%</t>
+          <t>43,61%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>29,5%</t>
+          <t>47,0%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>31,38%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>38,0%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>45,56%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>45,28%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>13,68; 18,56</t>
+          <t>25,46; 39,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>32,56; 40,22</t>
+          <t>30,98; 43,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>26,97; 33,36</t>
+          <t>42,69; 53,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,39; 19,52</t>
+          <t>36,41; 50,12</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>36,82; 43,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>26,12; 31,66</t>
+          <t>25,16; 36,61</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>14,69; 18,13</t>
+          <t>32,87; 44,04</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>35,66; 40,66</t>
+          <t>39,01; 48,32</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>27,51; 31,77</t>
+          <t>41,89; 52,28</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>26,91; 35,84</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>34,15; 42,42</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>41,99; 49,24</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>40,89; 49,5</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>36,69%</t>
+          <t>55,32%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>41,41%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>41,51%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>25,17%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>36,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>43,44%</t>
+          <t>58,43%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>39,14%</t>
+          <t>29,35%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>42,49%</t>
+          <t>24,61%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>56,98%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>19,65%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>27,72%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>24,88%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>32,84; 40,97</t>
+          <t>47,62; 63,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>37,27; 45,76</t>
+          <t>14,69; 25,7</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>37,76; 45,06</t>
+          <t>21,29; 31,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>30,01; 36,12</t>
+          <t>19,99; 31,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>33,71; 40,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>40,55; 46,69</t>
+          <t>51,83; 65,06</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>32,34; 37,51</t>
+          <t>15,44; 24,18</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>36,45; 41,9</t>
+          <t>25,18; 33,59</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>40,25; 44,94</t>
+          <t>20,41; 29,35</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>52,45; 61,71</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>16,55; 23,72</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>24,53; 31,11</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>21,75; 28,4</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>47,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>28,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>50,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>48,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2597,1434 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>43,1; 51,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>19,18; 26,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>25,38; 32,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>47,07; 53,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>20,39; 25,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>24,98; 30,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>46,11; 51,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>20,72; 25,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>25,84; 30,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>15,94%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>37,94%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>18,18%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>40,86%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>17,03%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>39,3%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>11,98; 19,98</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>29,04; 45,91</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>14,66; 22,6</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>32,98; 48,39</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>14,43; 19,76</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>33,61; 44,94</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>36,36%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>41,45%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>36,7%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>41,32%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>36,52%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>41,39%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>30,57; 42,66</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>33,74; 52,67</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>31,62; 41,79</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>33,61; 49,51</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>32,94; 40,68</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>35,8; 48,03</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>47,71%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>20,61%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>45,12%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>46,45%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>19,31%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>41,38; 53,89</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>14,12; 27,29</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>40,2; 50,51</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>12,41; 24,19</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>42,82; 50,18</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>15,22; 24,06</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>16,3%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>36,35%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>30,05%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>26,97%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>15,63%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>40,69%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>28,95%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>31,48%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>15,96%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>38,56%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>29,49%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>29,27%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>13,85; 18,95</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>32,38; 40,74</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>27,16; 33,43</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>23,01; 31,11</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>13,58; 18,03</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>37,76; 43,98</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>26,22; 31,53</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>28,17; 35,34</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>14,45; 17,86</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>35,84; 41,1</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>27,33; 31,61</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>26,68; 31,78</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>36,01%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>41,07%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>41,69%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>46,1%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>33,29%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>36,46%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>42,68%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>41,17%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>34,62%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>38,72%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>42,19%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>43,59%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>32,03; 39,96</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>37,29; 45,55</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>38,03; 44,84</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>41,11; 51,53</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>30,58; 36,43</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>33,01; 39,88</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>39,9; 45,46</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>37,86; 44,87</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>32,16; 37,3</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>36,22; 41,24</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>40,17; 44,58</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>40,73; 47,02</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>47,68%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>22,57%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>28,26%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>26,93%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>51,08%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>22,85%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>28,36%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>27,35%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>49,42%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>22,71%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>28,31%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>27,14%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>43,8; 51,76</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>19,39; 26,84</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>24,89; 32,08</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>22,77; 31,73</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>47,73; 53,75</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>20,03; 25,78</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>25,92; 30,98</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>24,38; 31,03</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>46,63; 51,95</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>20,82; 25,57</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>26,25; 30,59</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>24,57; 30,06</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P18_5-Estudios-long_dif.xlsx
+++ b/data/long_dif/P18_5-Estudios-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -821,7 +821,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -962,7 +962,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1248,7 +1248,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1389,7 +1389,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1675,7 +1675,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1816,7 +1816,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2102,7 +2102,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2243,7 +2243,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
